--- a/data/stage.xlsx
+++ b/data/stage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24860" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>id</t>
   </si>
@@ -22,13 +22,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>bg</t>
+  </si>
+  <si>
     <t>droplist</t>
   </si>
   <si>
-    <t>startplat</t>
-  </si>
-  <si>
-    <t>platnum</t>
+    <t>plat</t>
   </si>
   <si>
     <t>int</t>
@@ -40,16 +40,19 @@
     <t>名字</t>
   </si>
   <si>
+    <t>背景资源</t>
+  </si>
+  <si>
     <t>掉落列表</t>
   </si>
   <si>
     <t>起始图</t>
   </si>
   <si>
-    <t>地图块数</t>
-  </si>
-  <si>
     <t>近郊</t>
+  </si>
+  <si>
+    <t>zh</t>
   </si>
   <si>
     <t>[10002,20001,20002,30001]</t>
@@ -156,11 +159,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,6 +175,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,15 +218,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,33 +250,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,11 +265,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,44 +317,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -348,55 +351,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,97 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +559,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,9 +613,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,230 +656,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1143,633 +1137,632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.14166666666667" style="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.8583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6071428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>10001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>10002</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>10003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>10004</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>10005</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>10006</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>10007</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10008</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>10009</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>20001</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>20002</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>20003</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>20004</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>20005</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>20006</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>20007</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>20008</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>20009</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>20010</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>30001</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5</v>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>30002</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5</v>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>30003</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>30004</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>30005</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5</v>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>30006</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>30007</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5</v>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>30008</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>30009</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30010</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>30011</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>41</v>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>30012</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>42</v>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5</v>
+      <c r="D34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>30013</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5</v>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>30014</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5</v>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
